--- a/TC18_ApprovedProposal/18_Choice_ApprovedProposal.xlsx
+++ b/TC18_ApprovedProposal/18_Choice_ApprovedProposal.xlsx
@@ -1,21 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\test2\it\Project_Test_AcademicService\TC18_ApprovedProposal\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F182BCAE-02A4-4BBA-B8B2-D8CB67217594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="0"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="TC18-EC" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="TC18-TC" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="TC18-EC" sheetId="1" r:id="rId1"/>
+    <sheet name="TC18-TC" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="55">
   <si>
     <t>TCID</t>
   </si>
@@ -162,99 +181,116 @@
   </si>
   <si>
     <t>Click อนุมัติ</t>
+  </si>
+  <si>
+    <t>Result Pass / Fail</t>
+  </si>
+  <si>
+    <t>คิดเป็น %</t>
+  </si>
+  <si>
+    <t>Pass :</t>
+  </si>
+  <si>
+    <t>Fail :</t>
+  </si>
+  <si>
+    <t>Sum:</t>
+  </si>
+  <si>
+    <t>Revise Manual Testing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="9">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Tahoma"/>
+      <family val="2"/>
       <charset val="222"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Tahoma"/>
+      <family val="2"/>
       <charset val="222"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Tahoma"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
-      <b val="1"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Tahoma"/>
+      <family val="2"/>
       <charset val="222"/>
-      <family val="2"/>
-      <color theme="10"/>
-      <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="TH Sarabun ps"/>
       <charset val="222"/>
-      <color theme="1"/>
-      <sz val="11"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Tahoma"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
       <name val="Tahoma"/>
       <family val="2"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="Tahoma"/>
+      <family val="2"/>
       <charset val="222"/>
-      <family val="2"/>
-      <color rgb="FF00B050"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.1499984740745262"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.09997863704336681"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,132 +457,159 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+  <cellStyleXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="48">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="เปอร์เซ็นต์" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="5">
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.5999633777886288"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7171"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -559,7 +622,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
       </font>
       <fill>
         <patternFill>
@@ -569,10 +632,18 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="1">
-      <tableStyleElement type="headerRow" dxfId="2"/>
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+      <tableStyleElement type="headerRow" dxfId="4"/>
     </tableStyle>
   </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -892,26 +963,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col width="36.4140625" customWidth="1" min="2" max="3"/>
-    <col width="19.9140625" customWidth="1" min="4" max="4"/>
-    <col width="13.9140625" customWidth="1" min="5" max="5"/>
-    <col width="30.33203125" customWidth="1" min="6" max="6"/>
-    <col width="19.33203125" customWidth="1" min="7" max="7"/>
-    <col width="19.9140625" customWidth="1" min="8" max="8"/>
-    <col width="17.33203125" customWidth="1" min="9" max="9"/>
+    <col min="2" max="3" width="36.4140625" customWidth="1"/>
+    <col min="4" max="4" width="19.9140625" customWidth="1"/>
+    <col min="5" max="5" width="13.9140625" customWidth="1"/>
+    <col min="6" max="6" width="30.33203125" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" customWidth="1"/>
+    <col min="8" max="8" width="19.9140625" customWidth="1"/>
+    <col min="9" max="9" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -944,7 +1011,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="76.5" customHeight="1">
-      <c r="A2" s="6" t="n">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -956,7 +1023,7 @@
       <c r="D2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="6" t="n">
+      <c r="E2" s="6">
         <v>1</v>
       </c>
       <c r="F2" s="6" t="s">
@@ -973,7 +1040,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="60" customHeight="1">
-      <c r="A3" s="6" t="n">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -985,7 +1052,7 @@
       <c r="D3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="6" t="n">
+      <c r="E3" s="6">
         <v>2</v>
       </c>
       <c r="F3" s="6" t="s">
@@ -1001,12 +1068,128 @@
         <v>14</v>
       </c>
     </row>
+    <row r="6" spans="1:9">
+      <c r="E6" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="37"/>
+      <c r="G6" s="41" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="E7" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="7">
+        <f>COUNTIF(G2:G3, "Pass")</f>
+        <v>2</v>
+      </c>
+      <c r="G7" s="43">
+        <f>F7*100/F9</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="E8" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="7">
+        <f>COUNTIF(G2:G3, "FAIL")</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="44">
+        <f>F8*100/F9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="E9" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="45">
+        <f>SUM(F7+F8)</f>
+        <v>2</v>
+      </c>
+      <c r="G9" s="46">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="E12" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="37"/>
+      <c r="G12" s="41" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="E13" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="7">
+        <f>COUNTIF(H2:H3, "PASS")</f>
+        <v>2</v>
+      </c>
+      <c r="G13" s="43">
+        <f>F13*100/F15</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="E14" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="7">
+        <f>COUNTIF(H2:H3, "FAIL")</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="44">
+        <f>F14*100/F15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="E15" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="45">
+        <f>SUM(F13+F14)</f>
+        <v>2</v>
+      </c>
+      <c r="G15" s="43">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E12:F12"/>
+  </mergeCells>
   <conditionalFormatting sqref="G1:G3">
-    <cfRule type="cellIs" priority="3" operator="equal" dxfId="1">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="4" operator="equal" dxfId="0">
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6:G15">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1015,25 +1198,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col width="12.1640625" customWidth="1" min="1" max="1"/>
-    <col width="26.08203125" customWidth="1" min="2" max="2"/>
-    <col width="34.6640625" customWidth="1" min="3" max="3"/>
-    <col width="31.08203125" customWidth="1" min="4" max="4"/>
-    <col width="24.25" customWidth="1" min="5" max="5"/>
-    <col width="27.58203125" customWidth="1" min="6" max="6"/>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+    <col min="2" max="2" width="26.08203125" customWidth="1"/>
+    <col min="3" max="3" width="34.6640625" customWidth="1"/>
+    <col min="4" max="4" width="31.08203125" customWidth="1"/>
+    <col min="5" max="5" width="24.25" customWidth="1"/>
+    <col min="6" max="6" width="27.58203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1057,7 +1236,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A2" s="10" t="n">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
       <c r="B2" s="36" t="s">
@@ -1069,23 +1248,26 @@
       <c r="D2" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="13" t="n"/>
+      <c r="E2" s="13"/>
       <c r="F2" s="38" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A3" s="41" t="n"/>
+      <c r="A3" s="39"/>
+      <c r="B3" s="37"/>
       <c r="C3" s="14" t="s">
         <v>26</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="16" t="n"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="37"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="B4" s="17" t="n"/>
+      <c r="A4" s="37"/>
+      <c r="B4" s="17"/>
       <c r="C4" s="18" t="s">
         <v>28</v>
       </c>
@@ -1095,9 +1277,11 @@
       <c r="E4" s="19" t="s">
         <v>30</v>
       </c>
+      <c r="F4" s="37"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="B5" s="17" t="n"/>
+      <c r="A5" s="37"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="18" t="s">
         <v>31</v>
       </c>
@@ -1107,39 +1291,47 @@
       <c r="E5" s="20" t="s">
         <v>33</v>
       </c>
+      <c r="F5" s="37"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="B6" s="17" t="n"/>
+      <c r="A6" s="37"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="21" t="s">
         <v>34</v>
       </c>
       <c r="D6" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="23" t="n"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="37"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="B7" s="17" t="n"/>
+      <c r="A7" s="37"/>
+      <c r="B7" s="17"/>
       <c r="C7" s="24" t="s">
         <v>36</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="23" t="n"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="37"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="B8" s="22" t="n"/>
+      <c r="A8" s="37"/>
+      <c r="B8" s="22"/>
       <c r="C8" s="21" t="s">
         <v>38</v>
       </c>
       <c r="D8" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="23" t="n"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="37"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="B9" s="22" t="n"/>
+      <c r="A9" s="37"/>
+      <c r="B9" s="22"/>
       <c r="C9" s="21" t="s">
         <v>40</v>
       </c>
@@ -1149,9 +1341,11 @@
       <c r="E9" s="25" t="s">
         <v>9</v>
       </c>
+      <c r="F9" s="37"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="B10" s="22" t="n"/>
+      <c r="A10" s="37"/>
+      <c r="B10" s="22"/>
       <c r="C10" s="21" t="s">
         <v>42</v>
       </c>
@@ -1161,16 +1355,19 @@
       <c r="E10" s="26" t="s">
         <v>11</v>
       </c>
+      <c r="F10" s="37"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="B11" s="27" t="n"/>
+      <c r="A11" s="37"/>
+      <c r="B11" s="27"/>
       <c r="C11" s="28" t="s">
         <v>44</v>
       </c>
       <c r="D11" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="30" t="n"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="37"/>
     </row>
     <row r="12" spans="1:6" ht="16.5" customHeight="1">
       <c r="A12" s="10" t="s">
@@ -1185,24 +1382,26 @@
       <c r="D12" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="13" t="n"/>
+      <c r="E12" s="13"/>
       <c r="F12" s="38" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A13" s="31" t="n"/>
+      <c r="A13" s="31"/>
+      <c r="B13" s="37"/>
       <c r="C13" s="14" t="s">
         <v>26</v>
       </c>
       <c r="D13" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="16" t="n"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="37"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="21" t="n"/>
-      <c r="B14" s="17" t="n"/>
+      <c r="A14" s="21"/>
+      <c r="B14" s="17"/>
       <c r="C14" s="18" t="s">
         <v>28</v>
       </c>
@@ -1212,10 +1411,11 @@
       <c r="E14" s="19" t="s">
         <v>30</v>
       </c>
+      <c r="F14" s="37"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="21" t="n"/>
-      <c r="B15" s="17" t="n"/>
+      <c r="A15" s="21"/>
+      <c r="B15" s="17"/>
       <c r="C15" s="18" t="s">
         <v>31</v>
       </c>
@@ -1225,42 +1425,46 @@
       <c r="E15" s="20" t="s">
         <v>33</v>
       </c>
+      <c r="F15" s="37"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="21" t="n"/>
-      <c r="B16" s="17" t="n"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="17"/>
       <c r="C16" s="21" t="s">
         <v>34</v>
       </c>
       <c r="D16" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="23" t="n"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="37"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="21" t="n"/>
-      <c r="B17" s="17" t="n"/>
+      <c r="A17" s="21"/>
+      <c r="B17" s="17"/>
       <c r="C17" s="24" t="s">
         <v>36</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="23" t="n"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="37"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="21" t="n"/>
-      <c r="B18" s="22" t="n"/>
+      <c r="A18" s="21"/>
+      <c r="B18" s="22"/>
       <c r="C18" s="21" t="s">
         <v>38</v>
       </c>
       <c r="D18" s="22" t="s">
         <v>39</v>
       </c>
+      <c r="F18" s="37"/>
     </row>
     <row r="19" spans="1:6" ht="42" customHeight="1">
-      <c r="A19" s="21" t="n"/>
-      <c r="B19" s="22" t="n"/>
+      <c r="A19" s="21"/>
+      <c r="B19" s="22"/>
       <c r="C19" s="21" t="s">
         <v>40</v>
       </c>
@@ -1270,10 +1474,11 @@
       <c r="E19" s="32" t="s">
         <v>15</v>
       </c>
+      <c r="F19" s="37"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="21" t="n"/>
-      <c r="B20" s="22" t="n"/>
+      <c r="A20" s="21"/>
+      <c r="B20" s="22"/>
       <c r="C20" s="21" t="s">
         <v>47</v>
       </c>
@@ -1283,17 +1488,19 @@
       <c r="E20" s="26" t="s">
         <v>17</v>
       </c>
+      <c r="F20" s="37"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="33" t="n"/>
-      <c r="B21" s="27" t="n"/>
+      <c r="A21" s="33"/>
+      <c r="B21" s="27"/>
       <c r="C21" s="28" t="s">
         <v>44</v>
       </c>
       <c r="D21" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="E21" s="30" t="n"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1304,8 +1511,8 @@
     <mergeCell ref="F12:F21"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E4" display="Sch_ool.1a@gmail.com" r:id="rId1"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E14" display="Sch_ool.1a@gmail.com" r:id="rId2"/>
+    <hyperlink ref="E4" r:id="rId1" display="Sch_ool.1a@gmail.com" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="E14" r:id="rId2" display="Sch_ool.1a@gmail.com" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
